--- a/docs/orcamento.xlsx
+++ b/docs/orcamento.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\SENAI\3DES\PROJ\AULA06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\AgroTech\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658A811F-58B1-4270-970C-15F805950FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C819CFB0-085D-4DCE-8CDF-D0D6E444ADF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{211DDD06-3D26-4092-BDF8-45B9ACFDDFF6}"/>
   </bookViews>
@@ -328,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -390,9 +390,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -876,7 +873,7 @@
   <dimension ref="B2:XFD34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI20" sqref="AI20"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,7 +1050,7 @@
       <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="16"/>
       <c r="E5" s="19"/>
       <c r="F5" s="15"/>
@@ -1255,7 +1252,7 @@
       <c r="XFD10" s="15"/>
     </row>
     <row r="11" spans="2:31 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="15"/>

--- a/docs/orcamento.xlsx
+++ b/docs/orcamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\AgroTech\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C819CFB0-085D-4DCE-8CDF-D0D6E444ADF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E82E71E-8C5A-4111-A672-941FBE75B9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{211DDD06-3D26-4092-BDF8-45B9ACFDDFF6}"/>
   </bookViews>
@@ -328,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -391,6 +391,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -872,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC5B09-AF59-4288-8FB1-3ED32641577E}">
   <dimension ref="B2:XFD34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,8 +1051,8 @@
       <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="19"/>
       <c r="F5" s="15"/>
       <c r="G5" s="19"/>

--- a/docs/orcamento.xlsx
+++ b/docs/orcamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\AgroTech\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E82E71E-8C5A-4111-A672-941FBE75B9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D47C7AF-D311-4089-99E7-C60A35F4D404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{211DDD06-3D26-4092-BDF8-45B9ACFDDFF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Valor/Hora</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Web - Estruturação - Interface relatórios</t>
+  </si>
+  <si>
+    <t>Tarefas em standby</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +262,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -376,6 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -391,7 +401,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -399,6 +413,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -874,7 +893,7 @@
   <dimension ref="B2:XFD34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="AO10" sqref="AO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,79 +905,79 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:31 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
     </row>
     <row r="3" spans="2:31 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
     </row>
     <row r="4" spans="2:31 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="14">
         <v>17</v>
       </c>
@@ -1051,8 +1070,8 @@
       <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="19"/>
       <c r="F5" s="15"/>
       <c r="G5" s="19"/>
@@ -1087,8 +1106,8 @@
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="15"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -1123,8 +1142,8 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="19"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
@@ -1158,8 +1177,8 @@
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="19"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -1193,7 +1212,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -1871,10 +1890,16 @@
       <c r="C29" s="18"/>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="28"/>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C31" s="20"/>
     </row>
     <row r="34" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O34" t="s">

--- a/docs/orcamento.xlsx
+++ b/docs/orcamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\AgroTech\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D47C7AF-D311-4089-99E7-C60A35F4D404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10BFFFF-E2C3-45F7-9251-65C93BB45439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{211DDD06-3D26-4092-BDF8-45B9ACFDDFF6}"/>
   </bookViews>
@@ -337,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -386,6 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,11 +402,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -893,7 +889,7 @@
   <dimension ref="B2:XFD34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO10" sqref="AO10"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,79 +901,79 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:31 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
     </row>
     <row r="3" spans="2:31 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
     </row>
     <row r="4" spans="2:31 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="14">
         <v>17</v>
       </c>
@@ -1107,7 +1103,7 @@
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="29"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="15"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -1178,7 +1174,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="29"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="19"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -1213,7 +1209,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="16"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
@@ -1247,8 +1243,8 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
@@ -1890,10 +1886,10 @@
       <c r="C29" s="18"/>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="28"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B31" s="17" t="s">
